--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>429002.6570044666</v>
+        <v>426579.0504571259</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>110.0923443600239</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>34.82037800654354</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498657</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>172.7084989883163</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>162.415483917401</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>28.78048096121201</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>83.94385904162952</v>
+        <v>323.663725047623</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,13 +1060,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>134.9547360525119</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>251.1382003403121</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>339.7980414454768</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>124.2781875329272</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1151,7 +1151,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>96.36202120923178</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>161.5883269196777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,22 +1528,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1579,19 +1579,19 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>101.6904320390163</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>186.8277355178644</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.75513637220199</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699807</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238289</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2008,10 +2008,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833929</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>55.52079624060644</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238261</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>42.53134576114086</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>19.91555826189102</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2378,7 +2378,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2482,13 +2482,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>55.52079624060472</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,16 +2719,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>102.1557845699797</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520965</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>136.1078891637031</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>147.6895341487369</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,7 +3190,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>9.14614278817986</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>192.8170508184376</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>23.6255456814127</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3907,16 +3907,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4144,13 +4144,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>156.2292142534452</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1238.038871968308</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C2" t="n">
-        <v>1238.038871968308</v>
+        <v>810.5660676371781</v>
       </c>
       <c r="D2" t="n">
-        <v>1238.038871968308</v>
+        <v>452.3003690304276</v>
       </c>
       <c r="E2" t="n">
-        <v>852.2506193700638</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F2" t="n">
-        <v>441.2647145804562</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839476</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883006</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2741.012457539436</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2388.243802269321</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2014.778044008242</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1624.63871203243</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4383,7 +4383,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C3" t="n">
         <v>767.0908251999817</v>
@@ -4398,61 +4398,61 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.82830229719</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199863</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>376.7853475753367</v>
+        <v>95.58330932229657</v>
       </c>
       <c r="C4" t="n">
-        <v>212.7293032143256</v>
+        <v>95.58330932229657</v>
       </c>
       <c r="D4" t="n">
-        <v>212.7293032143256</v>
+        <v>95.58330932229657</v>
       </c>
       <c r="E4" t="n">
-        <v>212.7293032143256</v>
+        <v>95.58330932229657</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143256</v>
+        <v>95.58330932229657</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>95.58330932229657</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068849</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181842</v>
+        <v>831.0565485757135</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181842</v>
+        <v>639.3706644025399</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181842</v>
+        <v>639.3706644025399</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181842</v>
+        <v>350.2677975281835</v>
       </c>
       <c r="V4" t="n">
-        <v>666.2025176122974</v>
+        <v>95.58330932229657</v>
       </c>
       <c r="W4" t="n">
-        <v>376.7853475753367</v>
+        <v>95.58330932229657</v>
       </c>
       <c r="X4" t="n">
-        <v>376.7853475753367</v>
+        <v>95.58330932229657</v>
       </c>
       <c r="Y4" t="n">
-        <v>376.7853475753367</v>
+        <v>95.58330932229657</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1363.124011696101</v>
+        <v>1506.363819949361</v>
       </c>
       <c r="C5" t="n">
-        <v>994.1614947556893</v>
+        <v>1506.363819949361</v>
       </c>
       <c r="D5" t="n">
-        <v>994.1614947556893</v>
+        <v>1148.098121342611</v>
       </c>
       <c r="E5" t="n">
-        <v>608.373242157445</v>
+        <v>1148.098121342611</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.097597267229</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>2866.097597267229</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W5" t="n">
-        <v>2513.328941997114</v>
+        <v>2656.568750250374</v>
       </c>
       <c r="X5" t="n">
-        <v>2139.863183736034</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y5" t="n">
-        <v>1749.723851760223</v>
+        <v>1892.963660013483</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>518.445961844415</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C7" t="n">
-        <v>518.445961844415</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D7" t="n">
-        <v>518.445961844415</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E7" t="n">
-        <v>370.5328682620219</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181849</v>
+        <v>320.1870662708825</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="X7" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y7" t="n">
-        <v>700.0944266746548</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1944.904841306683</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C8" t="n">
-        <v>1575.942324366272</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>953.6440892486869</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912088</v>
@@ -4814,40 +4814,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520487</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176916</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2678.274518176916</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2678.274518176916</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>2288.135186201104</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064544</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,34 +4936,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>313.9641308033391</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C10" t="n">
-        <v>313.9641308033391</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D10" t="n">
-        <v>163.8474913910034</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
@@ -4987,25 +4987,25 @@
         <v>831.0565485757129</v>
       </c>
       <c r="S10" t="n">
-        <v>831.0565485757129</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T10" t="n">
-        <v>831.0565485757129</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="U10" t="n">
-        <v>541.9536817013565</v>
+        <v>476.1501321604405</v>
       </c>
       <c r="V10" t="n">
-        <v>541.9536817013565</v>
+        <v>476.1501321604405</v>
       </c>
       <c r="W10" t="n">
-        <v>541.9536817013565</v>
+        <v>476.1501321604405</v>
       </c>
       <c r="X10" t="n">
-        <v>313.9641308033391</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="Y10" t="n">
-        <v>313.9641308033391</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="11">
@@ -5021,70 +5021,70 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,49 +5173,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>849.3843576263199</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="C13" t="n">
-        <v>680.448174698413</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>140.7528025687997</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K13" t="n">
-        <v>296.7657364131323</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L13" t="n">
-        <v>526.3143760629337</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M13" t="n">
-        <v>771.5995144936172</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N13" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O13" t="n">
-        <v>1227.02787748437</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P13" t="n">
-        <v>1386.046835377028</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q13" t="n">
         <v>1440.555541309953</v>
@@ -5224,25 +5224,25 @@
         <v>1440.555541309953</v>
       </c>
       <c r="S13" t="n">
-        <v>1257.700706964858</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="T13" t="n">
-        <v>1038.099241987799</v>
+        <v>1154.983098844639</v>
       </c>
       <c r="U13" t="n">
-        <v>1038.099241987799</v>
+        <v>865.9078721888367</v>
       </c>
       <c r="V13" t="n">
-        <v>849.3843576263199</v>
+        <v>611.2233839829498</v>
       </c>
       <c r="W13" t="n">
-        <v>849.3843576263199</v>
+        <v>321.8062139459892</v>
       </c>
       <c r="X13" t="n">
-        <v>849.3843576263199</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="Y13" t="n">
-        <v>849.3843576263199</v>
+        <v>93.81666304797186</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,31 +5264,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,19 +5297,19 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452613</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718132</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>779.6143379232836</v>
+        <v>513.8536007400705</v>
       </c>
       <c r="C16" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>197.0043242297705</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138404</v>
       </c>
       <c r="Y16" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703103</v>
       </c>
     </row>
     <row r="17">
@@ -5507,19 +5507,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5528,25 +5528,25 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797189</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.793114229131</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468418</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963486</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282754</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458823</v>
+        <v>194.8007783998297</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2390.881471216012</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2171.280006238953</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1882.204779583151</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5744,7 +5744,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192616</v>
@@ -5762,19 +5762,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.793114229131</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>696.7084350851708</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C22" t="n">
-        <v>527.7722521572639</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D22" t="n">
-        <v>527.7722521572639</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E22" t="n">
-        <v>527.7722521572639</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5920,40 +5920,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570821</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580264</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832666</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832666</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855608</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199806</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993919</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956958</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1099.149479058941</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y22" t="n">
-        <v>878.3568999154105</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="23">
@@ -5984,10 +5984,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -5996,40 +5996,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797189</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327652</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>444.7013164925226</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>296.7882229101294</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F25" t="n">
-        <v>149.8982754122191</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6206,40 +6206,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6303,16 +6303,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400695</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121626</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121626</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297695</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703092</v>
       </c>
     </row>
     <row r="29">
@@ -6443,31 +6443,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>802.9288273958739</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C31" t="n">
-        <v>633.992644467967</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.369871369644</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.5772922261136</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6716,31 +6716,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>411.9631215597624</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E34" t="n">
-        <v>411.9631215597624</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F34" t="n">
-        <v>411.9631215597624</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G34" t="n">
-        <v>244.7670222746423</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>103.0551911168404</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6923,34 +6923,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>847.644273983533</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711973</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888042</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7312,22 +7312,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7391,13 +7391,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,10 +7406,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7491,25 +7491,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7546,22 +7546,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7649,19 +7649,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7849,7 +7849,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
   </sheetData>
@@ -22547,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>260.1437806353473</v>
+        <v>255.1805474109836</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22556,16 +22556,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>376.1013476469099</v>
+        <v>303.5606243285392</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462278</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>115.7150182882719</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>65.30990780596358</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>82.07684380973531</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>43.26526345295058</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23896,10 +23896,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>45.44677382459196</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -23908,7 +23908,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>125.5054897610381</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>102.8897022617904</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>145.6085800303778</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012316</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>110.0033420516641</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345295159</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>43.72409101823416</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9259388694754307</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>72.11969353038566</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>43.72409101823416</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>32.89260457059959</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25795,16 +25795,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26032,13 +26032,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>62.35543909864958</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>982255.7385075956</v>
+        <v>982255.7385075962</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>998623.8045192217</v>
+        <v>998623.8045192214</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1043750.569765054</v>
+        <v>1043750.569765053</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1043750.569765054</v>
+        <v>1043750.569765053</v>
       </c>
     </row>
     <row r="11">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>365938.4123851821</v>
+        <v>365938.4123851825</v>
       </c>
       <c r="C2" t="n">
+        <v>389994.8406855344</v>
+      </c>
+      <c r="D2" t="n">
         <v>389994.8406855343</v>
-      </c>
-      <c r="D2" t="n">
-        <v>389994.8406855344</v>
       </c>
       <c r="E2" t="n">
         <v>372036.3193306903</v>
       </c>
       <c r="F2" t="n">
-        <v>383394.6348527531</v>
+        <v>383394.634852753</v>
       </c>
       <c r="G2" t="n">
         <v>383394.634852753</v>
       </c>
       <c r="H2" t="n">
-        <v>383394.634852753</v>
+        <v>383394.6348527531</v>
       </c>
       <c r="I2" t="n">
         <v>383394.634852753</v>
       </c>
       <c r="J2" t="n">
-        <v>383394.6348527527</v>
+        <v>383394.634852753</v>
       </c>
       <c r="K2" t="n">
+        <v>383394.6348527529</v>
+      </c>
+      <c r="L2" t="n">
+        <v>383394.6348527529</v>
+      </c>
+      <c r="M2" t="n">
         <v>383394.634852753</v>
-      </c>
-      <c r="L2" t="n">
-        <v>383394.634852753</v>
-      </c>
-      <c r="M2" t="n">
-        <v>383394.6348527528</v>
       </c>
       <c r="N2" t="n">
         <v>383394.6348527529</v>
       </c>
       <c r="O2" t="n">
+        <v>383394.6348527527</v>
+      </c>
+      <c r="P2" t="n">
         <v>383394.634852753</v>
-      </c>
-      <c r="P2" t="n">
-        <v>383394.6348527529</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>4.14093847211916e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>64690.18151540496</v>
+        <v>64690.18151540506</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405249</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405259</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
-        <v>761.3882086835454</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="F4" t="n">
+        <v>15436.64000687966</v>
+      </c>
+      <c r="G4" t="n">
         <v>15436.64000687967</v>
-      </c>
-      <c r="G4" t="n">
-        <v>15436.64000687966</v>
       </c>
       <c r="H4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="I4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
         <v>15436.64000687966</v>
       </c>
       <c r="K4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687969</v>
       </c>
       <c r="L4" t="n">
-        <v>15436.64000687964</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="M4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.64000687973</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="O4" t="n">
-        <v>15436.64000687969</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="P4" t="n">
         <v>15436.64000687966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1135430.455419208</v>
+        <v>-1135557.068199737</v>
       </c>
       <c r="C6" t="n">
-        <v>188464.1560200881</v>
+        <v>188464.1560200888</v>
       </c>
       <c r="D6" t="n">
         <v>188464.1560200885</v>
       </c>
       <c r="E6" t="n">
-        <v>-55260.0605092558</v>
+        <v>-55354.57904270199</v>
       </c>
       <c r="F6" t="n">
-        <v>266835.4650219663</v>
+        <v>266800.7270965305</v>
       </c>
       <c r="G6" t="n">
-        <v>266835.4650219662</v>
+        <v>266800.7270965305</v>
       </c>
       <c r="H6" t="n">
-        <v>266835.4650219662</v>
+        <v>266800.7270965304</v>
       </c>
       <c r="I6" t="n">
-        <v>266835.4650219662</v>
+        <v>266800.7270965306</v>
       </c>
       <c r="J6" t="n">
-        <v>49304.26262468855</v>
+        <v>49269.52469925303</v>
       </c>
       <c r="K6" t="n">
-        <v>266835.4650219662</v>
+        <v>266800.7270965304</v>
       </c>
       <c r="L6" t="n">
-        <v>266835.4650219662</v>
+        <v>266800.7270965304</v>
       </c>
       <c r="M6" t="n">
-        <v>181780.4370864541</v>
+        <v>181745.6991610187</v>
       </c>
       <c r="N6" t="n">
-        <v>266835.4650219663</v>
+        <v>266800.7270965304</v>
       </c>
       <c r="O6" t="n">
-        <v>266835.4650219661</v>
+        <v>266800.7270965302</v>
       </c>
       <c r="P6" t="n">
-        <v>266835.4650219661</v>
+        <v>266800.7270965305</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26817,7 +26817,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>105.1291111356603</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>107.3611013249143</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.620037437533028e-12</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>4.831337181226843</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27552,10 +27552,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>115.9745339531088</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>322.9321867000819</v>
+        <v>83.21232069408848</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,13 +27780,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>10.46631197041935</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0.9994429835159337</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>42.93580021800381</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>257.6521825393346</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>50.07194143733739</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28059,13 +28059,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>124.6235112859351</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28263,7 +28263,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>-1.676039100824228e-12</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28728,7 +28728,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1.131184035330079e-12</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -28779,7 +28779,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-2.211213280550236e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -28992,7 +28992,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>3.016490760880212e-12</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>270.948695672725</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,13 +32066,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32081,34 +32081,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963282</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>732.4825987614915</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>344.9857809048118</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,22 +32546,22 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>377.6350660745949</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437244</v>
@@ -32573,7 +32573,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32792,34 +32792,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>754.0002396832324</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32944,34 +32944,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.267838362266</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>754.0002396832324</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>359.1374415194863</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,19 +33500,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>407.2177391203972</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33521,16 +33521,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33655,34 +33655,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>177.7456072667729</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33901,7 +33901,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159425</v>
@@ -33971,28 +33971,28 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34138,7 +34138,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34211,16 +34211,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34445,7 +34445,7 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>537.6437863443698</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34469,7 +34469,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966696</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014211</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>128.8146617507067</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>47.41024194023008</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K13" t="n">
-        <v>157.5888220649825</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L13" t="n">
-        <v>231.8673127775771</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M13" t="n">
         <v>247.7627660915995</v>
       </c>
       <c r="N13" t="n">
-        <v>249.8084161454457</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O13" t="n">
         <v>210.220233340163</v>
       </c>
       <c r="P13" t="n">
-        <v>160.6252099925839</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q13" t="n">
-        <v>55.05929892214692</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35729,25 +35729,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>261.348781916454</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>590.3485648394733</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>205.0040068187903</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36194,22 +36194,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.48457599928</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36288,7 +36288,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899105</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>622.6585275998991</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402477</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>622.6585275998991</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,16 +37151,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>265.0837051983789</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37169,7 +37169,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,31 +37379,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37859,16 +37859,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
@@ -38117,7 +38117,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
